--- a/raw-data/Llaviucu.xlsx
+++ b/raw-data/Llaviucu.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xbenito\Documents\R\pSESYNTH\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A747F2E-00B5-4DDB-BED1-1C46EA5B6336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F47F5747-FF4A-48DC-B5B5-D938ECB342DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="llaviucu_diatoms_counts" sheetId="2" r:id="rId1"/>
     <sheet name="llaviucu_pollen_counts" sheetId="4" r:id="rId2"/>
     <sheet name="llaviucu_charcoal" sheetId="5" r:id="rId3"/>
     <sheet name="llaviucu_xrf" sheetId="6" r:id="rId4"/>
+    <sheet name="llaviucu_14CAndes" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">llaviucu_14CAndes!$A$1:$F$276</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1145">
   <si>
     <t>depth</t>
   </si>
@@ -2225,15 +2229,1277 @@
   </si>
   <si>
     <t>1833.5</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Sitename</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>C14_date</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>HAM-226</t>
+  </si>
+  <si>
+    <t>Cochasqui</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>Hv-1273</t>
+  </si>
+  <si>
+    <t>charcoal</t>
+  </si>
+  <si>
+    <t>N-3875</t>
+  </si>
+  <si>
+    <t>Huapula</t>
+  </si>
+  <si>
+    <t>II-5</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>SI-3305</t>
+  </si>
+  <si>
+    <t>Ayalan, Hacienda</t>
+  </si>
+  <si>
+    <t>SI-3306</t>
+  </si>
+  <si>
+    <t>SI-3531</t>
+  </si>
+  <si>
+    <t>UM-421</t>
+  </si>
+  <si>
+    <t>Arajuno</t>
+  </si>
+  <si>
+    <t>UM-423</t>
+  </si>
+  <si>
+    <t>Hv-1287</t>
+  </si>
+  <si>
+    <t>Hv-1286</t>
+  </si>
+  <si>
+    <t>SI-3530</t>
+  </si>
+  <si>
+    <t>Hv-1288</t>
+  </si>
+  <si>
+    <t>738a</t>
+  </si>
+  <si>
+    <t>PITT-414</t>
+  </si>
+  <si>
+    <t>La Mina</t>
+  </si>
+  <si>
+    <t>Hv-1290</t>
+  </si>
+  <si>
+    <t>Hv-1282</t>
+  </si>
+  <si>
+    <t>GX#30044</t>
+  </si>
+  <si>
+    <t>Santa Ana - La Florida</t>
+  </si>
+  <si>
+    <t>Hv-1289</t>
+  </si>
+  <si>
+    <t>738b</t>
+  </si>
+  <si>
+    <t>Hv-1285</t>
+  </si>
+  <si>
+    <t>M-1425</t>
+  </si>
+  <si>
+    <t>Valle de los Quijos</t>
+  </si>
+  <si>
+    <t>Sitio Minda</t>
+  </si>
+  <si>
+    <t>Hv-1292</t>
+  </si>
+  <si>
+    <t>Hv-1284</t>
+  </si>
+  <si>
+    <t>Hv-1283</t>
+  </si>
+  <si>
+    <t>PITT-415</t>
+  </si>
+  <si>
+    <t>Hv-1271</t>
+  </si>
+  <si>
+    <t>AA-58002</t>
+  </si>
+  <si>
+    <t>La Cruz Zumba</t>
+  </si>
+  <si>
+    <t>M-736</t>
+  </si>
+  <si>
+    <t>Cerro de Hojas</t>
+  </si>
+  <si>
+    <t>Beta-20642</t>
+  </si>
+  <si>
+    <t>C55</t>
+  </si>
+  <si>
+    <t>Hv-1291</t>
+  </si>
+  <si>
+    <t>AA-58000</t>
+  </si>
+  <si>
+    <t>Los Lotes</t>
+  </si>
+  <si>
+    <t>Beta-171896</t>
+  </si>
+  <si>
+    <t>Tacana</t>
+  </si>
+  <si>
+    <t>M-1426</t>
+  </si>
+  <si>
+    <t>Sitio Borja</t>
+  </si>
+  <si>
+    <t>Hv-1272</t>
+  </si>
+  <si>
+    <t>Hv-15238</t>
+  </si>
+  <si>
+    <t>Putushio</t>
+  </si>
+  <si>
+    <t>see:ARCCOMMENT</t>
+  </si>
+  <si>
+    <t>Hv-1275</t>
+  </si>
+  <si>
+    <t>UM-422</t>
+  </si>
+  <si>
+    <t>Hv-1281</t>
+  </si>
+  <si>
+    <t>Hv-1279</t>
+  </si>
+  <si>
+    <t>Hv-1276</t>
+  </si>
+  <si>
+    <t>Beta-100539</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>P-269</t>
+  </si>
+  <si>
+    <t>Nueva Armenia</t>
+  </si>
+  <si>
+    <t>Hv-14705</t>
+  </si>
+  <si>
+    <t>(8)F2029/1a-475Cor.B</t>
+  </si>
+  <si>
+    <t>P-347</t>
+  </si>
+  <si>
+    <t>SI-3308</t>
+  </si>
+  <si>
+    <t>Hv-14703</t>
+  </si>
+  <si>
+    <t>(6) F2005/3a-4a-490</t>
+  </si>
+  <si>
+    <t>GX-12475</t>
+  </si>
+  <si>
+    <t>Nambillo</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>SI-3309</t>
+  </si>
+  <si>
+    <t>Beta-106087</t>
+  </si>
+  <si>
+    <t>Hv-1280</t>
+  </si>
+  <si>
+    <t>Hv-1277</t>
+  </si>
+  <si>
+    <t>HAM-228</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>GX-12476</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>GX-12478</t>
+  </si>
+  <si>
+    <t>R4/R13</t>
+  </si>
+  <si>
+    <t>HAM-230</t>
+  </si>
+  <si>
+    <t>Hv-1269</t>
+  </si>
+  <si>
+    <t>AA-58003</t>
+  </si>
+  <si>
+    <t>Paquisha</t>
+  </si>
+  <si>
+    <t>Hv-1274</t>
+  </si>
+  <si>
+    <t>Beta-100308</t>
+  </si>
+  <si>
+    <t>SI-3534</t>
+  </si>
+  <si>
+    <t>Hv-1278</t>
+  </si>
+  <si>
+    <t>HAM-229</t>
+  </si>
+  <si>
+    <t>GX-12477</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>GX-12474</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>HAM-227</t>
+  </si>
+  <si>
+    <t>UtC-3034</t>
+  </si>
+  <si>
+    <t>Cumbaya</t>
+  </si>
+  <si>
+    <t>MC-004</t>
+  </si>
+  <si>
+    <t>Beta-210218</t>
+  </si>
+  <si>
+    <t>Quimi</t>
+  </si>
+  <si>
+    <t>Beta-100538</t>
+  </si>
+  <si>
+    <t>Beta-168289</t>
+  </si>
+  <si>
+    <t>Nankais</t>
+  </si>
+  <si>
+    <t>Beta-90305</t>
+  </si>
+  <si>
+    <t>PITT-417</t>
+  </si>
+  <si>
+    <t>UtC-3036</t>
+  </si>
+  <si>
+    <t>MC-006</t>
+  </si>
+  <si>
+    <t>SI-3532</t>
+  </si>
+  <si>
+    <t>UtC-2755</t>
+  </si>
+  <si>
+    <t>MC-005</t>
+  </si>
+  <si>
+    <t>Beta-100537</t>
+  </si>
+  <si>
+    <t>SI-3529</t>
+  </si>
+  <si>
+    <t>UtC-2752</t>
+  </si>
+  <si>
+    <t>MC-003</t>
+  </si>
+  <si>
+    <t>GX-16561</t>
+  </si>
+  <si>
+    <t>Loma Tello</t>
+  </si>
+  <si>
+    <t>LT-5</t>
+  </si>
+  <si>
+    <t>UtC-1540</t>
+  </si>
+  <si>
+    <t>MC-002</t>
+  </si>
+  <si>
+    <t>PITT-410</t>
+  </si>
+  <si>
+    <t>El Tape</t>
+  </si>
+  <si>
+    <t>GX-16562</t>
+  </si>
+  <si>
+    <t>LT-10</t>
+  </si>
+  <si>
+    <t>GX-16564</t>
+  </si>
+  <si>
+    <t>San Francisco de Cobos</t>
+  </si>
+  <si>
+    <t>SFC-5</t>
+  </si>
+  <si>
+    <t>Hv-15239</t>
+  </si>
+  <si>
+    <t>F1450/X-7,8v,w</t>
+  </si>
+  <si>
+    <t>UtC-1539</t>
+  </si>
+  <si>
+    <t>MC-001</t>
+  </si>
+  <si>
+    <t>plant fragments</t>
+  </si>
+  <si>
+    <t>Beta-90306</t>
+  </si>
+  <si>
+    <t>Beta-89269</t>
+  </si>
+  <si>
+    <t>UM-424</t>
+  </si>
+  <si>
+    <t>GX-12467</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>Hv-15240</t>
+  </si>
+  <si>
+    <t>F1351/V-VIII-6v,w</t>
+  </si>
+  <si>
+    <t>GX-12479</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>M-735</t>
+  </si>
+  <si>
+    <t>La Tolita</t>
+  </si>
+  <si>
+    <t>GX-10630</t>
+  </si>
+  <si>
+    <t>Salango</t>
+  </si>
+  <si>
+    <t>human bone</t>
+  </si>
+  <si>
+    <t>GX-13671</t>
+  </si>
+  <si>
+    <t>N-3876</t>
+  </si>
+  <si>
+    <t>II-6</t>
+  </si>
+  <si>
+    <t>GX-12466</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>Hv-14702</t>
+  </si>
+  <si>
+    <t>(5) F1166/V-17c</t>
+  </si>
+  <si>
+    <t>N-3874</t>
+  </si>
+  <si>
+    <t>II-4</t>
+  </si>
+  <si>
+    <t>Beta-90630</t>
+  </si>
+  <si>
+    <t>GX-13024</t>
+  </si>
+  <si>
+    <t>Hv-2976</t>
+  </si>
+  <si>
+    <t>Palmar</t>
+  </si>
+  <si>
+    <t>Beta-116472</t>
+  </si>
+  <si>
+    <t>GX-10634</t>
+  </si>
+  <si>
+    <t>N-4490</t>
+  </si>
+  <si>
+    <t>MS-Hp Tola 1.70 m</t>
+  </si>
+  <si>
+    <t>Hv-1294</t>
+  </si>
+  <si>
+    <t>Hv-14708</t>
+  </si>
+  <si>
+    <t>(11)F1273/XII-20b</t>
+  </si>
+  <si>
+    <t>N-4489</t>
+  </si>
+  <si>
+    <t>MS-Hp C.D.9 80-100</t>
+  </si>
+  <si>
+    <t>HAM-225</t>
+  </si>
+  <si>
+    <t>N-3872</t>
+  </si>
+  <si>
+    <t>II-2</t>
+  </si>
+  <si>
+    <t>GX-12377</t>
+  </si>
+  <si>
+    <t>8TPESE-365-86</t>
+  </si>
+  <si>
+    <t>UtC-2753</t>
+  </si>
+  <si>
+    <t>GX-10635</t>
+  </si>
+  <si>
+    <t>Beta-116471</t>
+  </si>
+  <si>
+    <t>Beta-90307</t>
+  </si>
+  <si>
+    <t>N-4492</t>
+  </si>
+  <si>
+    <t>MS-Hp Tola 2 m</t>
+  </si>
+  <si>
+    <t>UtC-2754</t>
+  </si>
+  <si>
+    <t>ISGS-1187</t>
+  </si>
+  <si>
+    <t>Nueva Era</t>
+  </si>
+  <si>
+    <t>GX-12378</t>
+  </si>
+  <si>
+    <t>9TPESE-365-85</t>
+  </si>
+  <si>
+    <t>M-1315</t>
+  </si>
+  <si>
+    <t>Esteros</t>
+  </si>
+  <si>
+    <t>N-4488</t>
+  </si>
+  <si>
+    <t>Los Rios (km 58)</t>
+  </si>
+  <si>
+    <t>LR.58.M. 70-80</t>
+  </si>
+  <si>
+    <t>N-3871</t>
+  </si>
+  <si>
+    <t>II-1</t>
+  </si>
+  <si>
+    <t>GX-12465</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>M-1319</t>
+  </si>
+  <si>
+    <t>Beta-100309</t>
+  </si>
+  <si>
+    <t>M-1316</t>
+  </si>
+  <si>
+    <t>Hv-1295</t>
+  </si>
+  <si>
+    <t>N-3873</t>
+  </si>
+  <si>
+    <t>II-3</t>
+  </si>
+  <si>
+    <t>GX-10632</t>
+  </si>
+  <si>
+    <t>Beta-89267</t>
+  </si>
+  <si>
+    <t>UtC-3037</t>
+  </si>
+  <si>
+    <t>UW-123</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>Cut M</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>UW-124</t>
+  </si>
+  <si>
+    <t>Cut G</t>
+  </si>
+  <si>
+    <t>GX-13023</t>
+  </si>
+  <si>
+    <t>GX-12379</t>
+  </si>
+  <si>
+    <t>10TPESE-740-86</t>
+  </si>
+  <si>
+    <t>Beta-188267</t>
+  </si>
+  <si>
+    <t>Hv-2978</t>
+  </si>
+  <si>
+    <t>Beta-89270</t>
+  </si>
+  <si>
+    <t>GX-12472</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>GX-13026</t>
+  </si>
+  <si>
+    <t>Hv-14704</t>
+  </si>
+  <si>
+    <t>(7)F31/V-11c &amp; V-12b</t>
+  </si>
+  <si>
+    <t>Beta-106086</t>
+  </si>
+  <si>
+    <t>Hv-1293</t>
+  </si>
+  <si>
+    <t>B-33782</t>
+  </si>
+  <si>
+    <t>Colon Eloy (R-36)</t>
+  </si>
+  <si>
+    <t>B-5560</t>
+  </si>
+  <si>
+    <t>La Cadena</t>
+  </si>
+  <si>
+    <t>SI-3307</t>
+  </si>
+  <si>
+    <t>Hv-14706</t>
+  </si>
+  <si>
+    <t>(9)F1167/X-20c</t>
+  </si>
+  <si>
+    <t>GX-12380</t>
+  </si>
+  <si>
+    <t>11TPESE-760-86</t>
+  </si>
+  <si>
+    <t>ISGS-1347</t>
+  </si>
+  <si>
+    <t>Bella Vista (Puna Island)</t>
+  </si>
+  <si>
+    <t>GX-13670</t>
+  </si>
+  <si>
+    <t>GX-13672</t>
+  </si>
+  <si>
+    <t>GX-12468</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>GX-13667</t>
+  </si>
+  <si>
+    <t>SFU-109</t>
+  </si>
+  <si>
+    <t>Loma Alta</t>
+  </si>
+  <si>
+    <t>GX-13028</t>
+  </si>
+  <si>
+    <t>Hv-14707</t>
+  </si>
+  <si>
+    <t>(10)F240/VI-13dCor.A</t>
+  </si>
+  <si>
+    <t>GX-16563</t>
+  </si>
+  <si>
+    <t>LT-13</t>
+  </si>
+  <si>
+    <t>GX-9995</t>
+  </si>
+  <si>
+    <t>GX-7824</t>
+  </si>
+  <si>
+    <t>La Plata Island</t>
+  </si>
+  <si>
+    <t>GX-7822</t>
+  </si>
+  <si>
+    <t>ISGS-1176</t>
+  </si>
+  <si>
+    <t>GX-7817</t>
+  </si>
+  <si>
+    <t>GX-9991</t>
+  </si>
+  <si>
+    <t>GX-13025</t>
+  </si>
+  <si>
+    <t>GX-13669</t>
+  </si>
+  <si>
+    <t>GX-9992</t>
+  </si>
+  <si>
+    <t>ISGS-1175</t>
+  </si>
+  <si>
+    <t>GX-7820</t>
+  </si>
+  <si>
+    <t>GX-7818</t>
+  </si>
+  <si>
+    <t>N-3870</t>
+  </si>
+  <si>
+    <t>I-4</t>
+  </si>
+  <si>
+    <t>GX-9994</t>
+  </si>
+  <si>
+    <t>GX-9990</t>
+  </si>
+  <si>
+    <t>Beta-89271</t>
+  </si>
+  <si>
+    <t>HO-1307</t>
+  </si>
+  <si>
+    <t>Jama Valley</t>
+  </si>
+  <si>
+    <t>GX-7816</t>
+  </si>
+  <si>
+    <t>N-3869</t>
+  </si>
+  <si>
+    <t>I-2</t>
+  </si>
+  <si>
+    <t>GX-13675</t>
+  </si>
+  <si>
+    <t>N-2785</t>
+  </si>
+  <si>
+    <t>Cotocollao</t>
+  </si>
+  <si>
+    <t>SI-Evans-37</t>
+  </si>
+  <si>
+    <t>ISGS-3310</t>
+  </si>
+  <si>
+    <t>Dos Caminos</t>
+  </si>
+  <si>
+    <t>GX-7823</t>
+  </si>
+  <si>
+    <t>ISGS-3309</t>
+  </si>
+  <si>
+    <t>SI-1051</t>
+  </si>
+  <si>
+    <t>Buena Vista</t>
+  </si>
+  <si>
+    <t>B-43348</t>
+  </si>
+  <si>
+    <t>Santa Matra</t>
+  </si>
+  <si>
+    <t>GX-13673</t>
+  </si>
+  <si>
+    <t>I-7006</t>
+  </si>
+  <si>
+    <t>La Libertad</t>
+  </si>
+  <si>
+    <t>OxA-1376</t>
+  </si>
+  <si>
+    <t>Pirincay</t>
+  </si>
+  <si>
+    <t>OxA-948</t>
+  </si>
+  <si>
+    <t>I-7008</t>
+  </si>
+  <si>
+    <t>GX-13027</t>
+  </si>
+  <si>
+    <t>I-7013</t>
+  </si>
+  <si>
+    <t>GX-7821</t>
+  </si>
+  <si>
+    <t>ISGS-1182</t>
+  </si>
+  <si>
+    <t>OxA-5836</t>
+  </si>
+  <si>
+    <t>GX-12469</t>
+  </si>
+  <si>
+    <t>R34/R40</t>
+  </si>
+  <si>
+    <t>SI-1050</t>
+  </si>
+  <si>
+    <t>N-2784</t>
+  </si>
+  <si>
+    <t>SI-Evans-36</t>
+  </si>
+  <si>
+    <t>GX-12473</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>SMU-2241</t>
+  </si>
+  <si>
+    <t>La Emerenciana</t>
+  </si>
+  <si>
+    <t>GX-13668</t>
+  </si>
+  <si>
+    <t>SMU-2226</t>
+  </si>
+  <si>
+    <t>Beta-210217</t>
+  </si>
+  <si>
+    <t>SMU-4549</t>
+  </si>
+  <si>
+    <t>N-2909</t>
+  </si>
+  <si>
+    <t>Ayalan</t>
+  </si>
+  <si>
+    <t>Beta-188264</t>
+  </si>
+  <si>
+    <t>N-2908</t>
+  </si>
+  <si>
+    <t>Beta-188266</t>
+  </si>
+  <si>
+    <t>Beta-125106</t>
+  </si>
+  <si>
+    <t>Sample A Cat. No.5480</t>
+  </si>
+  <si>
+    <t>organic material/acid washes</t>
+  </si>
+  <si>
+    <t>Beta-197176</t>
+  </si>
+  <si>
+    <t>Beta-214742</t>
+  </si>
+  <si>
+    <t>SMU-2225</t>
+  </si>
+  <si>
+    <t>SMU-2263</t>
+  </si>
+  <si>
+    <t>Beta-210219</t>
+  </si>
+  <si>
+    <t>Beta-188263</t>
+  </si>
+  <si>
+    <t>Beta-188265</t>
+  </si>
+  <si>
+    <t>GX-7430</t>
+  </si>
+  <si>
+    <t>Real alto</t>
+  </si>
+  <si>
+    <t>Real Alto</t>
+  </si>
+  <si>
+    <t>Beta-172587</t>
+  </si>
+  <si>
+    <t>Beta-125107</t>
+  </si>
+  <si>
+    <t>Sample B Cat No.5623</t>
+  </si>
+  <si>
+    <t>L-1232H</t>
+  </si>
+  <si>
+    <t>Punta Concepción</t>
+  </si>
+  <si>
+    <t>N-2783</t>
+  </si>
+  <si>
+    <t>SI-Evans-35</t>
+  </si>
+  <si>
+    <t>GX-7702</t>
+  </si>
+  <si>
+    <t>GX#30043</t>
+  </si>
+  <si>
+    <t>GX-7434</t>
+  </si>
+  <si>
+    <t>P-2761</t>
+  </si>
+  <si>
+    <t>Anllulla</t>
+  </si>
+  <si>
+    <t>GX-7429</t>
+  </si>
+  <si>
+    <t>Hv-4675</t>
+  </si>
+  <si>
+    <t>Valdivia</t>
+  </si>
+  <si>
+    <t>M-1321</t>
+  </si>
+  <si>
+    <t>Zone E, 3.9-4.2 m</t>
+  </si>
+  <si>
+    <t>SMU-4259</t>
+  </si>
+  <si>
+    <t>ISGS-467</t>
+  </si>
+  <si>
+    <t>GX-7436</t>
+  </si>
+  <si>
+    <t>M-1318</t>
+  </si>
+  <si>
+    <t>Zone D, 3.0-3.3 m</t>
+  </si>
+  <si>
+    <t>GX-7437</t>
+  </si>
+  <si>
+    <t>GX-7438</t>
+  </si>
+  <si>
+    <t>GX-7439</t>
+  </si>
+  <si>
+    <t>GX-7700</t>
+  </si>
+  <si>
+    <t>L-1232</t>
+  </si>
+  <si>
+    <t>Hv-4838</t>
+  </si>
+  <si>
+    <t>GX-7701</t>
+  </si>
+  <si>
+    <t>ISGS-446</t>
+  </si>
+  <si>
+    <t>Beta-197175</t>
+  </si>
+  <si>
+    <t>Hv-4673</t>
+  </si>
+  <si>
+    <t>SFU-120</t>
+  </si>
+  <si>
+    <t>GX-5271</t>
+  </si>
+  <si>
+    <t>Colimes</t>
+  </si>
+  <si>
+    <t>GX-7703</t>
+  </si>
+  <si>
+    <t>SFU-105</t>
+  </si>
+  <si>
+    <t>SFU-122</t>
+  </si>
+  <si>
+    <t>M-1317</t>
+  </si>
+  <si>
+    <t>Zone D, 2.7 - 3.0</t>
+  </si>
+  <si>
+    <t>Hv-4840</t>
+  </si>
+  <si>
+    <t>Hv-4674</t>
+  </si>
+  <si>
+    <t>ISGS-477</t>
+  </si>
+  <si>
+    <t>Hv-4839</t>
+  </si>
+  <si>
+    <t>GX-12470</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>Hv-4835</t>
+  </si>
+  <si>
+    <t>M-1322</t>
+  </si>
+  <si>
+    <t>Zone E, 4.0 m</t>
+  </si>
+  <si>
+    <t>GX-9460</t>
+  </si>
+  <si>
+    <t>N-4491</t>
+  </si>
+  <si>
+    <t>MS-Hp Tola 1.50 m</t>
+  </si>
+  <si>
+    <t>SFU-110</t>
+  </si>
+  <si>
+    <t>SFU-123</t>
+  </si>
+  <si>
+    <t>GX-9458</t>
+  </si>
+  <si>
+    <t>GX-13674</t>
+  </si>
+  <si>
+    <t>GX-9459</t>
+  </si>
+  <si>
+    <t>M-1320</t>
+  </si>
+  <si>
+    <t>Zone E, 3.6-3.9 m</t>
+  </si>
+  <si>
+    <t>GX-9457</t>
+  </si>
+  <si>
+    <t>GX-12471</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>SRR-438</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>SRR-718</t>
+  </si>
+  <si>
+    <t>Rio Monjas</t>
+  </si>
+  <si>
+    <t>peat</t>
+  </si>
+  <si>
+    <t>TX-1133</t>
+  </si>
+  <si>
+    <t>Cubilan</t>
+  </si>
+  <si>
+    <t>R-1070/2</t>
+  </si>
+  <si>
+    <t>El Inga</t>
+  </si>
+  <si>
+    <t>SRR-2585</t>
+  </si>
+  <si>
+    <t>Rio Collanes</t>
+  </si>
+  <si>
+    <t>TX-1132</t>
+  </si>
+  <si>
+    <t>Chobsi</t>
+  </si>
+  <si>
+    <t>SRR-2581</t>
+  </si>
+  <si>
+    <t>Rio Mocha</t>
+  </si>
+  <si>
+    <t>SRR-2582</t>
+  </si>
+  <si>
+    <t>SRR-618</t>
+  </si>
+  <si>
+    <t>Punta Juramijo</t>
+  </si>
+  <si>
+    <t>SRR-2583</t>
+  </si>
+  <si>
+    <t>Chimborazo</t>
+  </si>
+  <si>
+    <t>SRR-2584</t>
+  </si>
+  <si>
+    <t>SRR-439</t>
+  </si>
+  <si>
+    <t>Sangolqui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2257,19 +3523,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F779E336-FFA1-420B-8091-764F108B956B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2580,10 +3849,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GT112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
@@ -70691,10 +71960,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EL73"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A73"/>
     </sheetView>
   </sheetViews>
@@ -101950,7 +103219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -103671,11 +104940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -106491,4 +107760,5597 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDECD57-01E4-479F-ACF3-0DABB975F02B}">
+  <dimension ref="A1:G276"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="20.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4"/>
+    <col min="4" max="4" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D3" s="4">
+        <v>558</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D10" s="4">
+        <v>714</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F10" s="4">
+        <v>185</v>
+      </c>
+      <c r="G10" s="4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D11" s="4">
+        <v>661</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F11" s="4">
+        <v>190</v>
+      </c>
+      <c r="G11" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F12" s="4">
+        <v>220</v>
+      </c>
+      <c r="G12" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F13" s="4">
+        <v>255</v>
+      </c>
+      <c r="G13" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F14" s="4">
+        <v>305</v>
+      </c>
+      <c r="G14" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D15" s="4">
+        <v>778</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F15" s="4">
+        <v>370</v>
+      </c>
+      <c r="G15" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D16" s="4">
+        <v>517</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F16" s="4">
+        <v>390</v>
+      </c>
+      <c r="G16" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F17" s="4">
+        <v>400</v>
+      </c>
+      <c r="G17" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F18" s="4">
+        <v>405</v>
+      </c>
+      <c r="G18" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D19" s="4">
+        <v>656</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F19" s="4">
+        <v>425</v>
+      </c>
+      <c r="G19" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F20" s="4">
+        <v>440</v>
+      </c>
+      <c r="G20" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D21" s="4">
+        <v>779</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F21" s="4">
+        <v>440</v>
+      </c>
+      <c r="G21" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D22" s="4">
+        <v>649</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F22" s="4">
+        <v>465</v>
+      </c>
+      <c r="G22" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D23" s="4">
+        <v>573</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F23" s="4">
+        <v>475</v>
+      </c>
+      <c r="G23" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F24" s="4">
+        <v>515</v>
+      </c>
+      <c r="G24" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D25" s="4">
+        <v>540</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F25" s="4">
+        <v>535</v>
+      </c>
+      <c r="G25" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F26" s="4">
+        <v>539</v>
+      </c>
+      <c r="G26" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F27" s="4">
+        <v>560</v>
+      </c>
+      <c r="G27" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F28" s="4">
+        <v>560</v>
+      </c>
+      <c r="G28" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D29" s="4">
+        <v>751</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F29" s="4">
+        <v>610</v>
+      </c>
+      <c r="G29" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F30" s="4">
+        <v>614</v>
+      </c>
+      <c r="G30" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F31" s="4">
+        <v>620</v>
+      </c>
+      <c r="G31" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F32" s="4">
+        <v>640</v>
+      </c>
+      <c r="G32" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D33" s="4">
+        <v>555</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F33" s="4">
+        <v>655</v>
+      </c>
+      <c r="G33" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F34" s="4">
+        <v>660</v>
+      </c>
+      <c r="G34" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D35" s="4">
+        <v>562</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F35" s="4">
+        <v>690</v>
+      </c>
+      <c r="G35" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F36" s="4">
+        <v>690</v>
+      </c>
+      <c r="G36" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D37" s="4">
+        <v>789</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F37" s="4">
+        <v>700</v>
+      </c>
+      <c r="G37" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D38" s="4">
+        <v>727</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F38" s="4">
+        <v>705</v>
+      </c>
+      <c r="G38" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D39" s="4">
+        <v>621</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F39" s="4">
+        <v>720</v>
+      </c>
+      <c r="G39" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F40" s="4">
+        <v>770</v>
+      </c>
+      <c r="G40" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F41" s="4">
+        <v>771</v>
+      </c>
+      <c r="G41" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F42" s="4">
+        <v>775</v>
+      </c>
+      <c r="G42" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F43" s="4">
+        <v>782</v>
+      </c>
+      <c r="G43" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F44" s="4">
+        <v>795</v>
+      </c>
+      <c r="G44" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F45" s="4">
+        <v>820</v>
+      </c>
+      <c r="G45" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F46" s="4">
+        <v>820</v>
+      </c>
+      <c r="G46" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F47" s="4">
+        <v>840</v>
+      </c>
+      <c r="G47" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F48" s="4">
+        <v>850</v>
+      </c>
+      <c r="G48" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D49" s="4">
+        <v>742</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F49" s="4">
+        <v>860</v>
+      </c>
+      <c r="G49" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D50" s="4">
+        <v>719</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F50" s="4">
+        <v>890</v>
+      </c>
+      <c r="G50" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F51" s="4">
+        <v>890</v>
+      </c>
+      <c r="G51" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F52" s="4">
+        <v>895</v>
+      </c>
+      <c r="G52" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F53" s="4">
+        <v>905</v>
+      </c>
+      <c r="G53" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F54" s="4">
+        <v>910</v>
+      </c>
+      <c r="G54" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D55" s="4">
+        <v>114</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F55" s="4">
+        <v>920</v>
+      </c>
+      <c r="G55" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F56" s="4">
+        <v>929</v>
+      </c>
+      <c r="G56" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D57" s="4">
+        <v>561</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F57" s="4">
+        <v>930</v>
+      </c>
+      <c r="G57" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F58" s="4">
+        <v>940</v>
+      </c>
+      <c r="G58" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D59" s="4">
+        <v>40</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F59" s="4">
+        <v>955</v>
+      </c>
+      <c r="G59" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F60" s="4">
+        <v>965</v>
+      </c>
+      <c r="G60" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D61" s="4">
+        <v>721</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F61" s="4">
+        <v>975</v>
+      </c>
+      <c r="G61" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F62" s="4">
+        <v>980</v>
+      </c>
+      <c r="G62" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F63" s="4">
+        <v>995</v>
+      </c>
+      <c r="G63" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1015</v>
+      </c>
+      <c r="G64" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1020</v>
+      </c>
+      <c r="G65" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1030</v>
+      </c>
+      <c r="G66" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1040</v>
+      </c>
+      <c r="G67" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1070</v>
+      </c>
+      <c r="G68" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1070</v>
+      </c>
+      <c r="G69" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1070</v>
+      </c>
+      <c r="G70" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1120</v>
+      </c>
+      <c r="G71" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1140</v>
+      </c>
+      <c r="G72" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1150</v>
+      </c>
+      <c r="G73" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1160</v>
+      </c>
+      <c r="G74" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1210</v>
+      </c>
+      <c r="G75" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1220</v>
+      </c>
+      <c r="G76" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1220</v>
+      </c>
+      <c r="G77" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1225</v>
+      </c>
+      <c r="G78" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1230</v>
+      </c>
+      <c r="G79" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1260</v>
+      </c>
+      <c r="G80" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1280</v>
+      </c>
+      <c r="G81" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1385</v>
+      </c>
+      <c r="G82" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1390</v>
+      </c>
+      <c r="G83" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1440</v>
+      </c>
+      <c r="G84" s="4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1510</v>
+      </c>
+      <c r="G85" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1650</v>
+      </c>
+      <c r="G86" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1650</v>
+      </c>
+      <c r="G87" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1665</v>
+      </c>
+      <c r="G88" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1665</v>
+      </c>
+      <c r="G89" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1665</v>
+      </c>
+      <c r="G90" s="4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1690</v>
+      </c>
+      <c r="G91" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1700</v>
+      </c>
+      <c r="G92" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1725</v>
+      </c>
+      <c r="G93" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1730</v>
+      </c>
+      <c r="G94" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1775</v>
+      </c>
+      <c r="G95" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1780</v>
+      </c>
+      <c r="G96" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1780</v>
+      </c>
+      <c r="G97" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1790</v>
+      </c>
+      <c r="G98" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1820</v>
+      </c>
+      <c r="G99" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1830</v>
+      </c>
+      <c r="G100" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1840</v>
+      </c>
+      <c r="G101" s="4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F102" s="4">
+        <v>1855</v>
+      </c>
+      <c r="G102" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1870</v>
+      </c>
+      <c r="G103" s="4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1875</v>
+      </c>
+      <c r="G104" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F105" s="4">
+        <v>1880</v>
+      </c>
+      <c r="G105" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F106" s="4">
+        <v>1930</v>
+      </c>
+      <c r="G106" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F107" s="4">
+        <v>1930</v>
+      </c>
+      <c r="G107" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1940</v>
+      </c>
+      <c r="G108" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1950</v>
+      </c>
+      <c r="G109" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1970</v>
+      </c>
+      <c r="G110" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1980</v>
+      </c>
+      <c r="G111" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1990</v>
+      </c>
+      <c r="G112" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1990</v>
+      </c>
+      <c r="G113" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1990</v>
+      </c>
+      <c r="G114" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F115" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G115" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F116" s="4">
+        <v>2010</v>
+      </c>
+      <c r="G116" s="4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F117" s="4">
+        <v>2010</v>
+      </c>
+      <c r="G117" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F118" s="4">
+        <v>2050</v>
+      </c>
+      <c r="G118" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F119" s="4">
+        <v>2070</v>
+      </c>
+      <c r="G119" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F120" s="4">
+        <v>2070</v>
+      </c>
+      <c r="G120" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F121" s="4">
+        <v>2095</v>
+      </c>
+      <c r="G121" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F122" s="4">
+        <v>2110</v>
+      </c>
+      <c r="G122" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F123" s="4">
+        <v>2110</v>
+      </c>
+      <c r="G123" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F124" s="4">
+        <v>2120</v>
+      </c>
+      <c r="G124" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F125" s="4">
+        <v>2145</v>
+      </c>
+      <c r="G125" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F126" s="4">
+        <v>2150</v>
+      </c>
+      <c r="G126" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F127" s="4">
+        <v>2160</v>
+      </c>
+      <c r="G127" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F128" s="4">
+        <v>2160</v>
+      </c>
+      <c r="G128" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F129" s="4">
+        <v>2170</v>
+      </c>
+      <c r="G129" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="F130" s="4">
+        <v>2175</v>
+      </c>
+      <c r="G130" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F131" s="4">
+        <v>2185</v>
+      </c>
+      <c r="G131" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F132" s="4">
+        <v>2220</v>
+      </c>
+      <c r="G132" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F133" s="4">
+        <v>2265</v>
+      </c>
+      <c r="G133" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F134" s="4">
+        <v>2280</v>
+      </c>
+      <c r="G134" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F135" s="4">
+        <v>2295</v>
+      </c>
+      <c r="G135" s="4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F136" s="4">
+        <v>2310</v>
+      </c>
+      <c r="G136" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F137" s="4">
+        <v>2315</v>
+      </c>
+      <c r="G137" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F138" s="4">
+        <v>2340</v>
+      </c>
+      <c r="G138" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F139" s="4">
+        <v>2360</v>
+      </c>
+      <c r="G139" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F140" s="4">
+        <v>2360</v>
+      </c>
+      <c r="G140" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F141" s="4">
+        <v>2385</v>
+      </c>
+      <c r="G141" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F142" s="4">
+        <v>2390</v>
+      </c>
+      <c r="G142" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F143" s="4">
+        <v>2430</v>
+      </c>
+      <c r="G143" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F144" s="4">
+        <v>2450</v>
+      </c>
+      <c r="G144" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F145" s="4">
+        <v>2450</v>
+      </c>
+      <c r="G145" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F146" s="4">
+        <v>2450</v>
+      </c>
+      <c r="G146" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F147" s="4">
+        <v>2460</v>
+      </c>
+      <c r="G147" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F148" s="4">
+        <v>2475</v>
+      </c>
+      <c r="G148" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F149" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F150" s="4">
+        <v>2515</v>
+      </c>
+      <c r="G150" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F151" s="4">
+        <v>2530</v>
+      </c>
+      <c r="G151" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F152" s="4">
+        <v>2540</v>
+      </c>
+      <c r="G152" s="4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F153" s="4">
+        <v>2540</v>
+      </c>
+      <c r="G153" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F154" s="4">
+        <v>2560</v>
+      </c>
+      <c r="G154" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F155" s="4">
+        <v>2590</v>
+      </c>
+      <c r="G155" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F156" s="4">
+        <v>2590</v>
+      </c>
+      <c r="G156" s="4">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F157" s="4">
+        <v>2595</v>
+      </c>
+      <c r="G157" s="4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F158" s="4">
+        <v>2600</v>
+      </c>
+      <c r="G158" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F159" s="4">
+        <v>2620</v>
+      </c>
+      <c r="G159" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F160" s="4">
+        <v>2640</v>
+      </c>
+      <c r="G160" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F161" s="4">
+        <v>2650</v>
+      </c>
+      <c r="G161" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F162" s="4">
+        <v>2655</v>
+      </c>
+      <c r="G162" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F163" s="4">
+        <v>2660</v>
+      </c>
+      <c r="G163" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F164" s="4">
+        <v>2705</v>
+      </c>
+      <c r="G164" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F165" s="4">
+        <v>2710</v>
+      </c>
+      <c r="G165" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F166" s="4">
+        <v>2745</v>
+      </c>
+      <c r="G166" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F167" s="4">
+        <v>2745</v>
+      </c>
+      <c r="G167" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F168" s="4">
+        <v>2750</v>
+      </c>
+      <c r="G168" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F169" s="4">
+        <v>2750</v>
+      </c>
+      <c r="G169" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F170" s="4">
+        <v>2765</v>
+      </c>
+      <c r="G170" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F171" s="4">
+        <v>2780</v>
+      </c>
+      <c r="G171" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F172" s="4">
+        <v>2800</v>
+      </c>
+      <c r="G172" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F173" s="4">
+        <v>2830</v>
+      </c>
+      <c r="G173" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F174" s="4">
+        <v>2860</v>
+      </c>
+      <c r="G174" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F175" s="4">
+        <v>2870</v>
+      </c>
+      <c r="G175" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F176" s="4">
+        <v>2880</v>
+      </c>
+      <c r="G176" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F177" s="4">
+        <v>2880</v>
+      </c>
+      <c r="G177" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F178" s="4">
+        <v>2915</v>
+      </c>
+      <c r="G178" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F179" s="4">
+        <v>2930</v>
+      </c>
+      <c r="G179" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F180" s="4">
+        <v>2945</v>
+      </c>
+      <c r="G180" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F181" s="4">
+        <v>2950</v>
+      </c>
+      <c r="G181" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F182" s="4">
+        <v>2965</v>
+      </c>
+      <c r="G182" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F183" s="4">
+        <v>2990</v>
+      </c>
+      <c r="G183" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F184" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G184" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F185" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G185" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F186" s="4">
+        <v>3015</v>
+      </c>
+      <c r="G186" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F187" s="4">
+        <v>3045</v>
+      </c>
+      <c r="G187" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F188" s="4">
+        <v>3060</v>
+      </c>
+      <c r="G188" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F189" s="4">
+        <v>3065</v>
+      </c>
+      <c r="G189" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F190" s="4">
+        <v>3070</v>
+      </c>
+      <c r="G190" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F191" s="4">
+        <v>3140</v>
+      </c>
+      <c r="G191" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F192" s="4">
+        <v>3180</v>
+      </c>
+      <c r="G192" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F193" s="4">
+        <v>3225</v>
+      </c>
+      <c r="G193" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F194" s="4">
+        <v>3250</v>
+      </c>
+      <c r="G194" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F195" s="4">
+        <v>3320</v>
+      </c>
+      <c r="G195" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F196" s="4">
+        <v>3330</v>
+      </c>
+      <c r="G196" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F197" s="4">
+        <v>3361</v>
+      </c>
+      <c r="G197" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F198" s="4">
+        <v>3370</v>
+      </c>
+      <c r="G198" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F199" s="4">
+        <v>3400</v>
+      </c>
+      <c r="G199" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F200" s="4">
+        <v>3480</v>
+      </c>
+      <c r="G200" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F201" s="4">
+        <v>3629</v>
+      </c>
+      <c r="G201" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F202" s="4">
+        <v>3630</v>
+      </c>
+      <c r="G202" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F203" s="4">
+        <v>3660</v>
+      </c>
+      <c r="G203" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F204" s="4">
+        <v>3665</v>
+      </c>
+      <c r="G204" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F205" s="4">
+        <v>3690</v>
+      </c>
+      <c r="G205" s="4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F206" s="4">
+        <v>3700</v>
+      </c>
+      <c r="G206" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F207" s="4">
+        <v>3700</v>
+      </c>
+      <c r="G207" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F208" s="4">
+        <v>3700</v>
+      </c>
+      <c r="G208" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F209" s="4">
+        <v>3707</v>
+      </c>
+      <c r="G209" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F210" s="4">
+        <v>3775</v>
+      </c>
+      <c r="G210" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F211" s="4">
+        <v>3790</v>
+      </c>
+      <c r="G211" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F212" s="4">
+        <v>3820</v>
+      </c>
+      <c r="G212" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F213" s="4">
+        <v>3830</v>
+      </c>
+      <c r="G213" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F214" s="4">
+        <v>3845</v>
+      </c>
+      <c r="G214" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F215" s="4">
+        <v>3845</v>
+      </c>
+      <c r="G215" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F216" s="4">
+        <v>3860</v>
+      </c>
+      <c r="G216" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F217" s="4">
+        <v>3860</v>
+      </c>
+      <c r="G217" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F218" s="4">
+        <v>3900</v>
+      </c>
+      <c r="G218" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F219" s="4">
+        <v>3960</v>
+      </c>
+      <c r="G219" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F220" s="4">
+        <v>3985</v>
+      </c>
+      <c r="G220" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F221" s="4">
+        <v>3990</v>
+      </c>
+      <c r="G221" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F222" s="4">
+        <v>4015</v>
+      </c>
+      <c r="G222" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D223" s="4">
+        <v>3</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F223" s="4">
+        <v>4020</v>
+      </c>
+      <c r="G223" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F224" s="4">
+        <v>4050</v>
+      </c>
+      <c r="G224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F225" s="4">
+        <v>4050</v>
+      </c>
+      <c r="G225" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F226" s="4">
+        <v>4075</v>
+      </c>
+      <c r="G226" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="F227" s="4">
+        <v>4100</v>
+      </c>
+      <c r="G227" s="4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F228" s="4">
+        <v>4109</v>
+      </c>
+      <c r="G228" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F229" s="4">
+        <v>4140</v>
+      </c>
+      <c r="G229" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F230" s="4">
+        <v>4145</v>
+      </c>
+      <c r="G230" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F231" s="4">
+        <v>4170</v>
+      </c>
+      <c r="G231" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F232" s="4">
+        <v>4175</v>
+      </c>
+      <c r="G232" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F233" s="4">
+        <v>4205</v>
+      </c>
+      <c r="G233" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F234" s="4">
+        <v>4240</v>
+      </c>
+      <c r="G234" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F235" s="4">
+        <v>4245</v>
+      </c>
+      <c r="G235" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F236" s="4">
+        <v>4250</v>
+      </c>
+      <c r="G236" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F237" s="4">
+        <v>4260</v>
+      </c>
+      <c r="G237" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F238" s="4">
+        <v>4260</v>
+      </c>
+      <c r="G238" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F239" s="4">
+        <v>4270</v>
+      </c>
+      <c r="G239" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F240" s="4">
+        <v>4300</v>
+      </c>
+      <c r="G240" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F241" s="4">
+        <v>4335</v>
+      </c>
+      <c r="G241" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F242" s="4">
+        <v>4360</v>
+      </c>
+      <c r="G242" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F243" s="4">
+        <v>4365</v>
+      </c>
+      <c r="G243" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F244" s="4">
+        <v>4375</v>
+      </c>
+      <c r="G244" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F245" s="4">
+        <v>4450</v>
+      </c>
+      <c r="G245" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F246" s="4">
+        <v>4460</v>
+      </c>
+      <c r="G246" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F247" s="4">
+        <v>4480</v>
+      </c>
+      <c r="G247" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F248" s="4">
+        <v>4495</v>
+      </c>
+      <c r="G248" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F249" s="4">
+        <v>4510</v>
+      </c>
+      <c r="G249" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F250" s="4">
+        <v>4525</v>
+      </c>
+      <c r="G250" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F251" s="4">
+        <v>4535</v>
+      </c>
+      <c r="G251" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F252" s="4">
+        <v>4540</v>
+      </c>
+      <c r="G252" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F253" s="4">
+        <v>4620</v>
+      </c>
+      <c r="G253" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F254" s="4">
+        <v>4620</v>
+      </c>
+      <c r="G254" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F255" s="4">
+        <v>4700</v>
+      </c>
+      <c r="G255" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F256" s="4">
+        <v>4700</v>
+      </c>
+      <c r="G256" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F257" s="4">
+        <v>4790</v>
+      </c>
+      <c r="G257" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F258" s="4">
+        <v>4920</v>
+      </c>
+      <c r="G258" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F259" s="4">
+        <v>4960</v>
+      </c>
+      <c r="G259" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="F260" s="4">
+        <v>4970</v>
+      </c>
+      <c r="G260" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F261" s="4">
+        <v>5050</v>
+      </c>
+      <c r="G261" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F262" s="4">
+        <v>5150</v>
+      </c>
+      <c r="G262" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F263" s="4">
+        <v>5240</v>
+      </c>
+      <c r="G263" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F264" s="4">
+        <v>5325</v>
+      </c>
+      <c r="G264" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F265" s="4">
+        <v>6470</v>
+      </c>
+      <c r="G265" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F266" s="4">
+        <v>6750</v>
+      </c>
+      <c r="G266" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F267" s="4">
+        <v>8480</v>
+      </c>
+      <c r="G267" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F268" s="4">
+        <v>9033</v>
+      </c>
+      <c r="G268" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F269" s="4">
+        <v>9310</v>
+      </c>
+      <c r="G269" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F270" s="4">
+        <v>10010</v>
+      </c>
+      <c r="G270" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F271" s="4">
+        <v>10650</v>
+      </c>
+      <c r="G271" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F272" s="4">
+        <v>11370</v>
+      </c>
+      <c r="G272" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="F273" s="4">
+        <v>32870</v>
+      </c>
+      <c r="G273" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F274" s="4">
+        <v>35440</v>
+      </c>
+      <c r="G274" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F275" s="4">
+        <v>40330</v>
+      </c>
+      <c r="G275" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F276" s="4">
+        <v>48800</v>
+      </c>
+      <c r="G276" s="4">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F276" xr:uid="{00000000-0009-0000-0000-000005000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F276">
+      <sortCondition ref="F1:F276"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>